--- a/Result/checksun/綠能環保.xlsx
+++ b/Result/checksun/綠能環保.xlsx
@@ -30879,7 +30879,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV156" t="inlineStr"/>
+      <c r="AV156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -31071,7 +31075,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV157" t="inlineStr"/>
+      <c r="AV157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -31263,7 +31271,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV158" t="inlineStr"/>
+      <c r="AV158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -31455,7 +31467,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV159" t="inlineStr"/>
+      <c r="AV159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -31647,7 +31663,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV160" t="inlineStr"/>
+      <c r="AV160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -31839,7 +31859,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV161" t="inlineStr"/>
+      <c r="AV161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -32031,7 +32055,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV162" t="inlineStr"/>
+      <c r="AV162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -32223,7 +32251,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV163" t="inlineStr"/>
+      <c r="AV163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -32415,7 +32447,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV164" t="inlineStr"/>
+      <c r="AV164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -32607,7 +32643,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV165" t="inlineStr"/>
+      <c r="AV165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -32791,7 +32831,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV166" t="inlineStr"/>
+      <c r="AV166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -39393,7 +39437,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV200" t="inlineStr"/>
+      <c r="AV200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -39581,7 +39629,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV201" t="inlineStr"/>
+      <c r="AV201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -39769,7 +39821,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV202" t="inlineStr"/>
+      <c r="AV202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -39957,7 +40013,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV203" t="inlineStr"/>
+      <c r="AV203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -40145,7 +40205,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV204" t="inlineStr"/>
+      <c r="AV204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -40333,7 +40397,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV205" t="inlineStr"/>
+      <c r="AV205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -40521,7 +40589,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV206" t="inlineStr"/>
+      <c r="AV206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -40709,7 +40781,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV207" t="inlineStr"/>
+      <c r="AV207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -40897,7 +40973,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV208" t="inlineStr"/>
+      <c r="AV208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -41085,7 +41165,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV209" t="inlineStr"/>
+      <c r="AV209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -41273,7 +41357,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV210" t="inlineStr"/>
+      <c r="AV210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">

--- a/Result/checksun/綠能環保.xlsx
+++ b/Result/checksun/綠能環保.xlsx
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-115322005</v>
+        <v>-15096364</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-115150719</v>
+        <v>-131574147</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-173997815</v>
+        <v>-534828577</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>191142521</v>
+        <v>618396174</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>142291252</v>
+        <v>-533042800</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>131634794</v>
+        <v>-39552871</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-90916880</v>
+        <v>-95290481</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-158714680</v>
+        <v>-189423502</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>-492465556</v>
+        <v>11115631</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>518170533</v>
+        <v>-65624879</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-516619372</v>
+        <v>103776357</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>321277891</v>
+        <v>527840298</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>114130896</v>
+        <v>176150958</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>71505577</v>
+        <v>118895215</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>51843632</v>
+        <v>77284432</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>42310784</v>
+        <v>67614997</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>2100747</v>
+        <v>54708277</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>18900329</v>
+        <v>56462470</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>19709278</v>
+        <v>59374957</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>45288891</v>
+        <v>66543280</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>6540471</v>
+        <v>43306350</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>5594935</v>
+        <v>24741772</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>7318639</v>
+        <v>29243029</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>31021670</v>
+        <v>23764773</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>1135316</v>
+        <v>-22356</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>3768131</v>
+        <v>569378</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>2755287</v>
+        <v>412161</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>950777</v>
+        <v>1756842</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-2035330</v>
+        <v>4142590</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-3887441</v>
+        <v>-436194</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-2108449</v>
+        <v>-3231007</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-1163423</v>
+        <v>-220659</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>1544315</v>
+        <v>-2254857</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>2914514</v>
+        <v>-8181063</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>7341343</v>
+        <v>-1563268</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>1906932</v>
+        <v>3500734</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>-29030356</v>
+        <v>-238785</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>-4282923</v>
+        <v>18707618</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>-616061</v>
+        <v>33184641</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>14128216</v>
+        <v>34615144</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-12142345</v>
+        <v>28332955</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>10204327</v>
+        <v>26741999</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>14663355</v>
+        <v>12831732</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>35132886</v>
+        <v>19686215</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>23596375</v>
+        <v>10086731</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>5823573</v>
+        <v>-11449799</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>5342414</v>
+        <v>-9365729</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>-7058703</v>
+        <v>-35270421</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>-8602</v>
+        <v>38514</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>4219</v>
+        <v>49791</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>5985</v>
+        <v>58496</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-10430</v>
+        <v>48620</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>11335</v>
+        <v>52095</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>44365</v>
+        <v>63224</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>57546</v>
+        <v>69759</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>34237</v>
+        <v>47987</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>8146</v>
+        <v>15694</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>1504</v>
+        <v>9894</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>6523</v>
+        <v>12743</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>10713</v>
+        <v>14655</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>11006359</v>
+        <v>7286561</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>3788816</v>
+        <v>247259</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>-1367546</v>
+        <v>-843049</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>-5907011</v>
+        <v>-6171929</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>-6655262</v>
+        <v>488495</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>-2512128</v>
+        <v>11701188</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>2187213</v>
+        <v>11046618</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>3113705</v>
+        <v>16836722</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>3036625</v>
+        <v>11150513</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>-2452131</v>
+        <v>4460761</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>4030052</v>
+        <v>11169168</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>11176691</v>
+        <v>13839266</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>-69</v>
+        <v>1723</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>1756</v>
+        <v>577</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>1417</v>
+        <v>1120</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>2742</v>
+        <v>954</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>-58</v>
+        <v>-1191</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>599</v>
+        <v>-1646</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>-950</v>
+        <v>-1889</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>-1121</v>
+        <v>-1244</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>-896</v>
+        <v>-1902</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>-838</v>
+        <v>-668</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>-12</v>
+        <v>160</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>-1349</v>
+        <v>-356</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>142836136</v>
+        <v>618638044</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>142117573</v>
+        <v>532049729</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>414507454</v>
+        <v>552744812</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>354688462</v>
+        <v>419558670</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>351967154</v>
+        <v>393366250</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -17222,7 +17222,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>207956260</v>
+        <v>175746754</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>121113446</v>
+        <v>26047582</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>37965002</v>
+        <v>-67875669</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>-69718902</v>
+        <v>-137015804</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>-56243238</v>
+        <v>-186967840</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>3434094</v>
+        <v>-102231778</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>37509396</v>
+        <v>-115656687</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>-147123</v>
+        <v>-181837</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>-171370</v>
+        <v>-293869</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>-215658</v>
+        <v>-550664</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>33582</v>
+        <v>-1489102</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>21746</v>
+        <v>-2423549</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>37388</v>
+        <v>-850308</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>-68296</v>
+        <v>-447206</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>-144245</v>
+        <v>-220037</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>-372394</v>
+        <v>91561</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>-1454388</v>
+        <v>66200</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>-2301050</v>
+        <v>253897</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>-515302</v>
+        <v>493230</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>-13106686</v>
+        <v>-22958764</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>188657</v>
+        <v>-496612</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>6472853</v>
+        <v>15978263</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>4166165</v>
+        <v>13913924</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>-14408604</v>
+        <v>16968548</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>-18255332</v>
+        <v>11372696</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>-14018243</v>
+        <v>2119193</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>13723335</v>
+        <v>21043511</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>27760742</v>
+        <v>34025533</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>23766002</v>
+        <v>15789498</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>17653817</v>
+        <v>14164108</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>1867286</v>
+        <v>23088706</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>5473</v>
+        <v>31156</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>-12024</v>
+        <v>28621</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>-33223</v>
+        <v>-12469</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>-39771</v>
+        <v>-20509</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>-68531</v>
+        <v>-3369</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>29648</v>
+        <v>-4506</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>65454</v>
+        <v>-4656</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>109176</v>
+        <v>59194</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>-8894</v>
+        <v>2766</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>-46192</v>
+        <v>19918</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>-44014</v>
+        <v>47200</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>-25260</v>
+        <v>106420</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
@@ -25030,7 +25030,7 @@
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="U134" t="n">
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>-1579</v>
+        <v>3719</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -25211,7 +25211,7 @@
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="U135" t="n">
@@ -25234,7 +25234,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>-2487</v>
+        <v>2521</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -25415,7 +25415,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>-2570</v>
+        <v>2428</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -25563,12 +25563,12 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>-2208</v>
+        <v>2725</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
@@ -25754,7 +25754,7 @@
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="U138" t="n">
@@ -25777,7 +25777,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>3165</v>
+        <v>4884</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -25925,12 +25925,12 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
@@ -25958,7 +25958,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>5663</v>
+        <v>6757</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
@@ -26139,7 +26139,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>7506</v>
+        <v>5304</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -26292,12 +26292,12 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="U141" t="n">
@@ -26320,7 +26320,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>1843</v>
+        <v>-306</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="U142" t="n">
@@ -26501,7 +26501,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>-665</v>
+        <v>344</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -26654,12 +26654,12 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="U143" t="n">
@@ -26682,7 +26682,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>-2573</v>
+        <v>-2341</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="U144" t="n">
@@ -26863,7 +26863,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>-124</v>
+        <v>-3674</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -27016,12 +27016,12 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
+          <t>-1.12</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
           <t>-1.13</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>-1.14</t>
         </is>
       </c>
       <c r="U145" t="n">
@@ -27044,7 +27044,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>1759</v>
+        <v>-2077</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>-11306</v>
+        <v>-4328</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>-11568</v>
+        <v>-12532</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>-8615</v>
+        <v>-1488</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>-697</v>
+        <v>7518</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>-10588</v>
+        <v>7902</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -28118,7 +28118,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>-3942</v>
+        <v>5718</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>7675</v>
+        <v>8343</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>9624</v>
+        <v>11075</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>11069</v>
+        <v>3577</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>540</v>
+        <v>-5889</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>8866</v>
+        <v>-902</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>-1409</v>
+        <v>-5425</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>-7936972</v>
+        <v>-78492231</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -29550,7 +29550,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>31648176</v>
+        <v>-35295426</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>-31236695</v>
+        <v>-62465969</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>-43079104</v>
+        <v>-50256793</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>-169072113</v>
+        <v>-45676306</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>-100419496</v>
+        <v>-40380882</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -30445,7 +30445,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>-27476155</v>
+        <v>-26792225</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>102128511</v>
+        <v>77003635</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>69190222</v>
+        <v>7880241</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>20298466</v>
+        <v>37035990</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>21267296</v>
+        <v>48318153</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>-9151608</v>
+        <v>82302338</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -31519,7 +31519,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>734478</v>
+        <v>-790657</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>-3037650</v>
+        <v>-1869335</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>-2955550</v>
+        <v>-2123285</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>-2732731</v>
+        <v>-690335</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>-3080985</v>
+        <v>-1064335</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>-1977235</v>
+        <v>-938326</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -32581,7 +32581,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>1207596</v>
+        <v>1746955</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>4249300</v>
+        <v>3002179</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>2809500</v>
+        <v>-361171</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>834800</v>
+        <v>-2545821</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>-2232650</v>
+        <v>-2421571</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -33466,7 +33466,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>-1770591</v>
+        <v>-4609321</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>-4180707</v>
+        <v>12838750</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -33838,7 +33838,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>2925542</v>
+        <v>17780193</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>6728846</v>
+        <v>19833519</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>8695495</v>
+        <v>19378534</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -34399,7 +34399,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>7160527</v>
+        <v>14791990</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>8937350</v>
+        <v>13032887</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -34773,7 +34773,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>8323962</v>
+        <v>8758837</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>7694124</v>
+        <v>3664327</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -35147,7 +35147,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>4167323</v>
+        <v>202428</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>2359077</v>
+        <v>-3325492</v>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
@@ -35513,7 +35513,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>-62661</v>
+        <v>-5003937</v>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>-71786</v>
+        <v>-8571737</v>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>-1548005</v>
+        <v>5400493</v>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>7001047</v>
+        <v>13694753</v>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>10567082</v>
+        <v>16954597</v>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>6463573</v>
+        <v>9401699</v>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>7590017</v>
+        <v>7806353</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
@@ -36766,7 +36766,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>757934</v>
+        <v>-4364751</v>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>484925</v>
+        <v>-7885311</v>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>-896311</v>
+        <v>-10197607</v>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
@@ -37303,7 +37303,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>5629581</v>
+        <v>-9113996</v>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
@@ -37482,7 +37482,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>2453201</v>
+        <v>-8691538</v>
       </c>
       <c r="AC203" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>1112647</v>
+        <v>-6620603</v>
       </c>
       <c r="AC204" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>-10752266</v>
+        <v>-22234003</v>
       </c>
       <c r="AC205" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>-10</v>
+        <v>2644</v>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
@@ -38202,7 +38202,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>2918</v>
+        <v>6091</v>
       </c>
       <c r="AC207" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>-1112</v>
+        <v>4744</v>
       </c>
       <c r="AC208" t="inlineStr">
         <is>
@@ -38564,7 +38564,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>198</v>
+        <v>7699</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
@@ -38745,7 +38745,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>-2010</v>
+        <v>10783</v>
       </c>
       <c r="AC210" t="inlineStr">
         <is>
@@ -38926,7 +38926,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>1144</v>
+        <v>10243</v>
       </c>
       <c r="AC211" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>2456</v>
+        <v>5367</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
@@ -39288,7 +39288,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>5183</v>
+        <v>1660</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -39469,7 +39469,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>4712</v>
+        <v>-7044</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>5045</v>
+        <v>-11762</v>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
@@ -39831,7 +39831,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>7610</v>
+        <v>-8308</v>
       </c>
       <c r="AC216" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>4387</v>
+        <v>-11558</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         </is>
       </c>
       <c r="AB218" t="n">
-        <v>-5987373</v>
+        <v>-41378761</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         </is>
       </c>
       <c r="AB219" t="n">
-        <v>-1415492</v>
+        <v>-49193466</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -40549,7 +40549,7 @@
         </is>
       </c>
       <c r="AB220" t="n">
-        <v>-6008659</v>
+        <v>-54698551</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -40728,7 +40728,7 @@
         </is>
       </c>
       <c r="AB221" t="n">
-        <v>1138841</v>
+        <v>-54722040</v>
       </c>
       <c r="AC221" t="inlineStr">
         <is>
@@ -40907,7 +40907,7 @@
         </is>
       </c>
       <c r="AB222" t="n">
-        <v>-5831831</v>
+        <v>-60598821</v>
       </c>
       <c r="AC222" t="inlineStr">
         <is>
@@ -41086,7 +41086,7 @@
         </is>
       </c>
       <c r="AB223" t="n">
-        <v>-16287777</v>
+        <v>-69274633</v>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
@@ -41265,7 +41265,7 @@
         </is>
       </c>
       <c r="AB224" t="n">
-        <v>-36530229</v>
+        <v>-49532639</v>
       </c>
       <c r="AC224" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         </is>
       </c>
       <c r="AB225" t="n">
-        <v>-41946143</v>
+        <v>-13172232</v>
       </c>
       <c r="AC225" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         </is>
       </c>
       <c r="AB226" t="n">
-        <v>-32402115</v>
+        <v>11479408</v>
       </c>
       <c r="AC226" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="AB227" t="n">
-        <v>-19330652</v>
+        <v>19167033</v>
       </c>
       <c r="AC227" t="inlineStr">
         <is>
@@ -42013,7 +42013,7 @@
         </is>
       </c>
       <c r="AB228" t="n">
-        <v>-12820847</v>
+        <v>60707519</v>
       </c>
       <c r="AC228" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         </is>
       </c>
       <c r="AB229" t="n">
-        <v>-20584741</v>
+        <v>74495035</v>
       </c>
       <c r="AC229" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         </is>
       </c>
       <c r="AB230" t="n">
-        <v>387081545</v>
+        <v>906605661</v>
       </c>
       <c r="AC230" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         </is>
       </c>
       <c r="AB231" t="n">
-        <v>295712322</v>
+        <v>654883533</v>
       </c>
       <c r="AC231" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         </is>
       </c>
       <c r="AB232" t="n">
-        <v>175026773</v>
+        <v>327933821</v>
       </c>
       <c r="AC232" t="inlineStr">
         <is>
@@ -42956,7 +42956,7 @@
         </is>
       </c>
       <c r="AB233" t="n">
-        <v>398758946</v>
+        <v>410594751</v>
       </c>
       <c r="AC233" t="inlineStr">
         <is>
@@ -43145,7 +43145,7 @@
         </is>
       </c>
       <c r="AB234" t="n">
-        <v>14255893</v>
+        <v>480431773</v>
       </c>
       <c r="AC234" t="inlineStr">
         <is>
@@ -43334,7 +43334,7 @@
         </is>
       </c>
       <c r="AB235" t="n">
-        <v>168810958</v>
+        <v>425050089</v>
       </c>
       <c r="AC235" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         </is>
       </c>
       <c r="AB236" t="n">
-        <v>120765170</v>
+        <v>261091431</v>
       </c>
       <c r="AC236" t="inlineStr">
         <is>
@@ -43712,7 +43712,7 @@
         </is>
       </c>
       <c r="AB237" t="n">
-        <v>344915318</v>
+        <v>450134642</v>
       </c>
       <c r="AC237" t="inlineStr">
         <is>
@@ -43901,7 +43901,7 @@
         </is>
       </c>
       <c r="AB238" t="n">
-        <v>-15903910</v>
+        <v>44048627</v>
       </c>
       <c r="AC238" t="inlineStr">
         <is>
@@ -44082,7 +44082,7 @@
         </is>
       </c>
       <c r="AB239" t="n">
-        <v>-108929365</v>
+        <v>-76171439</v>
       </c>
       <c r="AC239" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         </is>
       </c>
       <c r="AB240" t="n">
-        <v>121260562</v>
+        <v>-3827001</v>
       </c>
       <c r="AC240" t="inlineStr">
         <is>
@@ -44444,7 +44444,7 @@
         </is>
       </c>
       <c r="AB241" t="n">
-        <v>272143041</v>
+        <v>140491274</v>
       </c>
       <c r="AC241" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         </is>
       </c>
       <c r="AB242" t="n">
-        <v>198152151</v>
+        <v>-438497558</v>
       </c>
       <c r="AC242" t="inlineStr">
         <is>
@@ -44822,7 +44822,7 @@
         </is>
       </c>
       <c r="AB243" t="n">
-        <v>-10896573</v>
+        <v>-755670442</v>
       </c>
       <c r="AC243" t="inlineStr">
         <is>
@@ -45011,7 +45011,7 @@
         </is>
       </c>
       <c r="AB244" t="n">
-        <v>-489087900</v>
+        <v>-811061782</v>
       </c>
       <c r="AC244" t="inlineStr">
         <is>
@@ -45200,7 +45200,7 @@
         </is>
       </c>
       <c r="AB245" t="n">
-        <v>173237194</v>
+        <v>-596923525</v>
       </c>
       <c r="AC245" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         </is>
       </c>
       <c r="AB246" t="n">
-        <v>-1813088715</v>
+        <v>-656998084</v>
       </c>
       <c r="AC246" t="inlineStr">
         <is>
@@ -45578,7 +45578,7 @@
         </is>
       </c>
       <c r="AB247" t="n">
-        <v>-519058738</v>
+        <v>-377470142</v>
       </c>
       <c r="AC247" t="inlineStr">
         <is>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="AB248" t="n">
-        <v>-809886903</v>
+        <v>-861224790</v>
       </c>
       <c r="AC248" t="inlineStr">
         <is>
@@ -45956,7 +45956,7 @@
         </is>
       </c>
       <c r="AB249" t="n">
-        <v>1068314846</v>
+        <v>905231132</v>
       </c>
       <c r="AC249" t="inlineStr">
         <is>
@@ -46137,7 +46137,7 @@
         </is>
       </c>
       <c r="AB250" t="n">
-        <v>197084856</v>
+        <v>86467097</v>
       </c>
       <c r="AC250" t="inlineStr">
         <is>
@@ -46318,7 +46318,7 @@
         </is>
       </c>
       <c r="AB251" t="n">
-        <v>39726184</v>
+        <v>-121337989</v>
       </c>
       <c r="AC251" t="inlineStr">
         <is>
@@ -46499,7 +46499,7 @@
         </is>
       </c>
       <c r="AB252" t="n">
-        <v>87775785</v>
+        <v>-59840496</v>
       </c>
       <c r="AC252" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         </is>
       </c>
       <c r="AB253" t="n">
-        <v>-55496260</v>
+        <v>63000045</v>
       </c>
       <c r="AC253" t="inlineStr">
         <is>
@@ -46869,7 +46869,7 @@
         </is>
       </c>
       <c r="AB254" t="n">
-        <v>-59330957</v>
+        <v>22244215</v>
       </c>
       <c r="AC254" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         </is>
       </c>
       <c r="AB255" t="n">
-        <v>123840799</v>
+        <v>154234167</v>
       </c>
       <c r="AC255" t="inlineStr">
         <is>
@@ -47247,7 +47247,7 @@
         </is>
       </c>
       <c r="AB256" t="n">
-        <v>-78247416</v>
+        <v>91479139</v>
       </c>
       <c r="AC256" t="inlineStr">
         <is>
@@ -47436,7 +47436,7 @@
         </is>
       </c>
       <c r="AB257" t="n">
-        <v>-117597056</v>
+        <v>194415682</v>
       </c>
       <c r="AC257" t="inlineStr">
         <is>
@@ -47625,7 +47625,7 @@
         </is>
       </c>
       <c r="AB258" t="n">
-        <v>-586833804</v>
+        <v>168577268</v>
       </c>
       <c r="AC258" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         </is>
       </c>
       <c r="AB259" t="n">
-        <v>12764204</v>
+        <v>214424605</v>
       </c>
       <c r="AC259" t="inlineStr">
         <is>
@@ -48003,7 +48003,7 @@
         </is>
       </c>
       <c r="AB260" t="n">
-        <v>199172228</v>
+        <v>235152854</v>
       </c>
       <c r="AC260" t="inlineStr">
         <is>
@@ -48192,7 +48192,7 @@
         </is>
       </c>
       <c r="AB261" t="n">
-        <v>617227172</v>
+        <v>564532332</v>
       </c>
       <c r="AC261" t="inlineStr">
         <is>
@@ -48373,7 +48373,7 @@
         </is>
       </c>
       <c r="AB262" t="n">
-        <v>156962351</v>
+        <v>-51707355</v>
       </c>
       <c r="AC262" t="inlineStr">
         <is>
@@ -48554,7 +48554,7 @@
         </is>
       </c>
       <c r="AB263" t="n">
-        <v>112840510</v>
+        <v>-252816795</v>
       </c>
       <c r="AC263" t="inlineStr">
         <is>
@@ -48735,7 +48735,7 @@
         </is>
       </c>
       <c r="AB264" t="n">
-        <v>138183900</v>
+        <v>-146239307</v>
       </c>
       <c r="AC264" t="inlineStr">
         <is>
@@ -48916,7 +48916,7 @@
         </is>
       </c>
       <c r="AB265" t="n">
-        <v>44698050</v>
+        <v>66747901</v>
       </c>
       <c r="AC265" t="inlineStr">
         <is>
@@ -49105,7 +49105,7 @@
         </is>
       </c>
       <c r="AB266" t="n">
-        <v>41426</v>
+        <v>104303</v>
       </c>
       <c r="AC266" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         </is>
       </c>
       <c r="AB267" t="n">
-        <v>29343</v>
+        <v>88270</v>
       </c>
       <c r="AC267" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="AB268" t="n">
-        <v>27631</v>
+        <v>114186</v>
       </c>
       <c r="AC268" t="inlineStr">
         <is>
@@ -49672,7 +49672,7 @@
         </is>
       </c>
       <c r="AB269" t="n">
-        <v>23129</v>
+        <v>94110</v>
       </c>
       <c r="AC269" t="inlineStr">
         <is>
@@ -49853,7 +49853,7 @@
         </is>
       </c>
       <c r="AB270" t="n">
-        <v>51419</v>
+        <v>109597</v>
       </c>
       <c r="AC270" t="inlineStr">
         <is>
@@ -50034,7 +50034,7 @@
         </is>
       </c>
       <c r="AB271" t="n">
-        <v>55731</v>
+        <v>99708</v>
       </c>
       <c r="AC271" t="inlineStr">
         <is>
@@ -50215,7 +50215,7 @@
         </is>
       </c>
       <c r="AB272" t="n">
-        <v>39748</v>
+        <v>46518</v>
       </c>
       <c r="AC272" t="inlineStr">
         <is>
@@ -50396,7 +50396,7 @@
         </is>
       </c>
       <c r="AB273" t="n">
-        <v>7508</v>
+        <v>-32224</v>
       </c>
       <c r="AC273" t="inlineStr">
         <is>
@@ -50577,7 +50577,7 @@
         </is>
       </c>
       <c r="AB274" t="n">
-        <v>30824</v>
+        <v>-35713</v>
       </c>
       <c r="AC274" t="inlineStr">
         <is>
@@ -50758,7 +50758,7 @@
         </is>
       </c>
       <c r="AB275" t="n">
-        <v>31233</v>
+        <v>-34609</v>
       </c>
       <c r="AC275" t="inlineStr">
         <is>
@@ -50939,7 +50939,7 @@
         </is>
       </c>
       <c r="AB276" t="n">
-        <v>50670</v>
+        <v>-28529</v>
       </c>
       <c r="AC276" t="inlineStr">
         <is>
@@ -51120,7 +51120,7 @@
         </is>
       </c>
       <c r="AB277" t="n">
-        <v>13153</v>
+        <v>-14890</v>
       </c>
       <c r="AC277" t="inlineStr">
         <is>
@@ -51299,7 +51299,7 @@
         </is>
       </c>
       <c r="AB278" t="n">
-        <v>17808801</v>
+        <v>24709456</v>
       </c>
       <c r="AC278" t="inlineStr">
         <is>
@@ -51478,7 +51478,7 @@
         </is>
       </c>
       <c r="AB279" t="n">
-        <v>26472647</v>
+        <v>30048054</v>
       </c>
       <c r="AC279" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         </is>
       </c>
       <c r="AB280" t="n">
-        <v>6430037</v>
+        <v>10921642</v>
       </c>
       <c r="AC280" t="inlineStr">
         <is>
@@ -51836,7 +51836,7 @@
         </is>
       </c>
       <c r="AB281" t="n">
-        <v>5577297</v>
+        <v>8996541</v>
       </c>
       <c r="AC281" t="inlineStr">
         <is>
@@ -52015,7 +52015,7 @@
         </is>
       </c>
       <c r="AB282" t="n">
-        <v>1142838</v>
+        <v>3549115</v>
       </c>
       <c r="AC282" t="inlineStr">
         <is>
@@ -52194,7 +52194,7 @@
         </is>
       </c>
       <c r="AB283" t="n">
-        <v>5381001</v>
+        <v>4965804</v>
       </c>
       <c r="AC283" t="inlineStr">
         <is>
@@ -52373,7 +52373,7 @@
         </is>
       </c>
       <c r="AB284" t="n">
-        <v>1323358</v>
+        <v>1039290</v>
       </c>
       <c r="AC284" t="inlineStr">
         <is>
@@ -52552,7 +52552,7 @@
         </is>
       </c>
       <c r="AB285" t="n">
-        <v>2432569</v>
+        <v>2615483</v>
       </c>
       <c r="AC285" t="inlineStr">
         <is>
@@ -52731,7 +52731,7 @@
         </is>
       </c>
       <c r="AB286" t="n">
-        <v>-889396</v>
+        <v>-2997192</v>
       </c>
       <c r="AC286" t="inlineStr">
         <is>
@@ -52910,7 +52910,7 @@
         </is>
       </c>
       <c r="AB287" t="n">
-        <v>2095886</v>
+        <v>-3394810</v>
       </c>
       <c r="AC287" t="inlineStr">
         <is>
@@ -53089,7 +53089,7 @@
         </is>
       </c>
       <c r="AB288" t="n">
-        <v>-26292</v>
+        <v>510565</v>
       </c>
       <c r="AC288" t="inlineStr">
         <is>
@@ -53268,7 +53268,7 @@
         </is>
       </c>
       <c r="AB289" t="n">
-        <v>474199</v>
+        <v>-264643</v>
       </c>
       <c r="AC289" t="inlineStr">
         <is>
@@ -53457,7 +53457,7 @@
         </is>
       </c>
       <c r="AB290" t="n">
-        <v>-47657</v>
+        <v>74269</v>
       </c>
       <c r="AC290" t="inlineStr">
         <is>
@@ -53646,7 +53646,7 @@
         </is>
       </c>
       <c r="AB291" t="n">
-        <v>-49066</v>
+        <v>64152</v>
       </c>
       <c r="AC291" t="inlineStr">
         <is>
@@ -53835,7 +53835,7 @@
         </is>
       </c>
       <c r="AB292" t="n">
-        <v>-40256</v>
+        <v>93376</v>
       </c>
       <c r="AC292" t="inlineStr">
         <is>
@@ -54024,7 +54024,7 @@
         </is>
       </c>
       <c r="AB293" t="n">
-        <v>26339</v>
+        <v>125678</v>
       </c>
       <c r="AC293" t="inlineStr">
         <is>
@@ -54213,7 +54213,7 @@
         </is>
       </c>
       <c r="AB294" t="n">
-        <v>49333</v>
+        <v>121409</v>
       </c>
       <c r="AC294" t="inlineStr">
         <is>
@@ -54402,7 +54402,7 @@
         </is>
       </c>
       <c r="AB295" t="n">
-        <v>121129</v>
+        <v>131956</v>
       </c>
       <c r="AC295" t="inlineStr">
         <is>
@@ -54591,7 +54591,7 @@
         </is>
       </c>
       <c r="AB296" t="n">
-        <v>95587</v>
+        <v>94352</v>
       </c>
       <c r="AC296" t="inlineStr">
         <is>
@@ -54780,7 +54780,7 @@
         </is>
       </c>
       <c r="AB297" t="n">
-        <v>63885</v>
+        <v>64165</v>
       </c>
       <c r="AC297" t="inlineStr">
         <is>
@@ -54969,7 +54969,7 @@
         </is>
       </c>
       <c r="AB298" t="n">
-        <v>12503</v>
+        <v>4096</v>
       </c>
       <c r="AC298" t="inlineStr">
         <is>
@@ -55150,7 +55150,7 @@
         </is>
       </c>
       <c r="AB299" t="n">
-        <v>3752</v>
+        <v>10328</v>
       </c>
       <c r="AC299" t="inlineStr">
         <is>
@@ -55331,7 +55331,7 @@
         </is>
       </c>
       <c r="AB300" t="n">
-        <v>8191</v>
+        <v>12281</v>
       </c>
       <c r="AC300" t="inlineStr">
         <is>
@@ -55512,7 +55512,7 @@
         </is>
       </c>
       <c r="AB301" t="n">
-        <v>-1676</v>
+        <v>-130</v>
       </c>
       <c r="AC301" t="inlineStr">
         <is>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="AB302" t="n">
-        <v>-121637</v>
+        <v>782842</v>
       </c>
       <c r="AC302" t="inlineStr">
         <is>
@@ -55890,7 +55890,7 @@
         </is>
       </c>
       <c r="AB303" t="n">
-        <v>1100714</v>
+        <v>1421920</v>
       </c>
       <c r="AC303" t="inlineStr">
         <is>
@@ -56043,12 +56043,12 @@
       </c>
       <c r="S304" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="T304" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="U304" t="n">
@@ -56079,7 +56079,7 @@
         </is>
       </c>
       <c r="AB304" t="n">
-        <v>740638</v>
+        <v>862562</v>
       </c>
       <c r="AC304" t="inlineStr">
         <is>
@@ -56232,7 +56232,7 @@
       </c>
       <c r="S305" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="T305" t="inlineStr">
@@ -56268,7 +56268,7 @@
         </is>
       </c>
       <c r="AB305" t="n">
-        <v>126686</v>
+        <v>374859</v>
       </c>
       <c r="AC305" t="inlineStr">
         <is>
@@ -56449,7 +56449,7 @@
         </is>
       </c>
       <c r="AB306" t="n">
-        <v>133897</v>
+        <v>-2074654</v>
       </c>
       <c r="AC306" t="inlineStr">
         <is>
@@ -56630,7 +56630,7 @@
         </is>
       </c>
       <c r="AB307" t="n">
-        <v>444311</v>
+        <v>-1901694</v>
       </c>
       <c r="AC307" t="inlineStr">
         <is>
@@ -56811,7 +56811,7 @@
         </is>
       </c>
       <c r="AB308" t="n">
-        <v>777793</v>
+        <v>-1466576</v>
       </c>
       <c r="AC308" t="inlineStr">
         <is>
@@ -56964,12 +56964,12 @@
       </c>
       <c r="S309" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="T309" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="U309" t="n">
@@ -56992,7 +56992,7 @@
         </is>
       </c>
       <c r="AB309" t="n">
-        <v>187309</v>
+        <v>-1294567</v>
       </c>
       <c r="AC309" t="inlineStr">
         <is>
@@ -57173,7 +57173,7 @@
         </is>
       </c>
       <c r="AB310" t="n">
-        <v>-322387</v>
+        <v>-411611</v>
       </c>
       <c r="AC310" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
       </c>
       <c r="T311" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="U311" t="n">
@@ -57354,7 +57354,7 @@
         </is>
       </c>
       <c r="AB311" t="n">
-        <v>-529620</v>
+        <v>-1824380</v>
       </c>
       <c r="AC311" t="inlineStr">
         <is>
@@ -57507,7 +57507,7 @@
       </c>
       <c r="S312" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="T312" t="inlineStr">
@@ -57535,7 +57535,7 @@
         </is>
       </c>
       <c r="AB312" t="n">
-        <v>-2395860</v>
+        <v>-1794070</v>
       </c>
       <c r="AC312" t="inlineStr">
         <is>
@@ -57678,7 +57678,7 @@
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -57688,7 +57688,7 @@
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="T313" t="inlineStr">
@@ -57716,7 +57716,7 @@
         </is>
       </c>
       <c r="AB313" t="n">
-        <v>-2023618</v>
+        <v>-1111485</v>
       </c>
       <c r="AC313" t="inlineStr">
         <is>
@@ -57859,22 +57859,22 @@
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="S314" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T314" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="U314" t="n">
@@ -57897,7 +57897,7 @@
         </is>
       </c>
       <c r="AB314" t="n">
-        <v>-556</v>
+        <v>-1654</v>
       </c>
       <c r="AC314" t="inlineStr">
         <is>
@@ -58040,22 +58040,22 @@
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="S315" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T315" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="U315" t="n">
@@ -58068,7 +58068,7 @@
         <v>64</v>
       </c>
       <c r="X315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y315" t="inlineStr"/>
       <c r="Z315" t="inlineStr"/>
@@ -58078,7 +58078,7 @@
         </is>
       </c>
       <c r="AB315" t="n">
-        <v>-65</v>
+        <v>-53</v>
       </c>
       <c r="AC315" t="inlineStr">
         <is>
@@ -58221,22 +58221,22 @@
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T316" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U316" t="n">
@@ -58249,7 +58249,7 @@
         <v>0</v>
       </c>
       <c r="X316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y316" t="inlineStr"/>
       <c r="Z316" t="inlineStr"/>
@@ -58259,7 +58259,7 @@
         </is>
       </c>
       <c r="AB316" t="n">
-        <v>1412</v>
+        <v>806</v>
       </c>
       <c r="AC316" t="inlineStr">
         <is>
@@ -58402,7 +58402,7 @@
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -58412,12 +58412,12 @@
       </c>
       <c r="S317" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="T317" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U317" t="n">
@@ -58430,7 +58430,7 @@
         <v>0</v>
       </c>
       <c r="X317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y317" t="inlineStr"/>
       <c r="Z317" t="inlineStr"/>
@@ -58440,7 +58440,7 @@
         </is>
       </c>
       <c r="AB317" t="n">
-        <v>-839</v>
+        <v>0</v>
       </c>
       <c r="AC317" t="inlineStr">
         <is>
@@ -58583,7 +58583,7 @@
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -58593,12 +58593,12 @@
       </c>
       <c r="S318" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="T318" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="U318" t="n">
@@ -58621,7 +58621,7 @@
         </is>
       </c>
       <c r="AB318" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AC318" t="inlineStr">
         <is>
@@ -58764,7 +58764,7 @@
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -58774,12 +58774,12 @@
       </c>
       <c r="S319" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="T319" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U319" t="n">
@@ -58802,7 +58802,7 @@
         </is>
       </c>
       <c r="AB319" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AC319" t="inlineStr">
         <is>
@@ -58945,7 +58945,7 @@
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -58955,12 +58955,12 @@
       </c>
       <c r="S320" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="T320" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="U320" t="n">
@@ -58983,7 +58983,7 @@
         </is>
       </c>
       <c r="AB320" t="n">
-        <v>-259</v>
+        <v>0</v>
       </c>
       <c r="AC320" t="inlineStr">
         <is>
@@ -59121,27 +59121,27 @@
       </c>
       <c r="P321" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S321" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="T321" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="U321" t="n">
@@ -59164,7 +59164,7 @@
         </is>
       </c>
       <c r="AB321" t="n">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AC321" t="inlineStr">
         <is>
@@ -59302,27 +59302,27 @@
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="T322" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U322" t="n">
@@ -59345,7 +59345,7 @@
         </is>
       </c>
       <c r="AB322" t="n">
-        <v>-642</v>
+        <v>0</v>
       </c>
       <c r="AC322" t="inlineStr">
         <is>
@@ -59483,27 +59483,27 @@
       </c>
       <c r="P323" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="T323" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U323" t="n">
@@ -59664,12 +59664,12 @@
       </c>
       <c r="P324" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -59679,12 +59679,12 @@
       </c>
       <c r="S324" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="U324" t="n">
@@ -59810,11 +59810,11 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>34.65</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>100</v>
+        <v>6.35</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -59828,7 +59828,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N325" t="n">
@@ -59841,27 +59841,27 @@
       </c>
       <c r="P325" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S325" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="U325" t="n">
@@ -60073,7 +60073,7 @@
         </is>
       </c>
       <c r="AB326" t="n">
-        <v>1837278</v>
+        <v>4718155</v>
       </c>
       <c r="AC326" t="inlineStr">
         <is>
@@ -60262,7 +60262,7 @@
         </is>
       </c>
       <c r="AB327" t="n">
-        <v>-1331686</v>
+        <v>1945185</v>
       </c>
       <c r="AC327" t="inlineStr">
         <is>
@@ -60451,7 +60451,7 @@
         </is>
       </c>
       <c r="AB328" t="n">
-        <v>-3017451</v>
+        <v>-161931</v>
       </c>
       <c r="AC328" t="inlineStr">
         <is>
@@ -60640,7 +60640,7 @@
         </is>
       </c>
       <c r="AB329" t="n">
-        <v>1615907</v>
+        <v>3297622</v>
       </c>
       <c r="AC329" t="inlineStr">
         <is>
@@ -60829,7 +60829,7 @@
         </is>
       </c>
       <c r="AB330" t="n">
-        <v>-3008084</v>
+        <v>3958423</v>
       </c>
       <c r="AC330" t="inlineStr">
         <is>
@@ -61018,7 +61018,7 @@
         </is>
       </c>
       <c r="AB331" t="n">
-        <v>2051162</v>
+        <v>3673688</v>
       </c>
       <c r="AC331" t="inlineStr">
         <is>
@@ -61199,7 +61199,7 @@
         </is>
       </c>
       <c r="AB332" t="n">
-        <v>1264970</v>
+        <v>-1468076</v>
       </c>
       <c r="AC332" t="inlineStr">
         <is>
@@ -61380,7 +61380,7 @@
         </is>
       </c>
       <c r="AB333" t="n">
-        <v>6284955</v>
+        <v>1701477</v>
       </c>
       <c r="AC333" t="inlineStr">
         <is>
@@ -61561,7 +61561,7 @@
         </is>
       </c>
       <c r="AB334" t="n">
-        <v>804358</v>
+        <v>-3257106</v>
       </c>
       <c r="AC334" t="inlineStr">
         <is>
@@ -61742,7 +61742,7 @@
         </is>
       </c>
       <c r="AB335" t="n">
-        <v>416745</v>
+        <v>-6518993</v>
       </c>
       <c r="AC335" t="inlineStr">
         <is>
@@ -61923,7 +61923,7 @@
         </is>
       </c>
       <c r="AB336" t="n">
-        <v>681552</v>
+        <v>-5826837</v>
       </c>
       <c r="AC336" t="inlineStr">
         <is>
@@ -62104,7 +62104,7 @@
         </is>
       </c>
       <c r="AB337" t="n">
-        <v>818168</v>
+        <v>-10351817</v>
       </c>
       <c r="AC337" t="inlineStr">
         <is>
@@ -62293,7 +62293,7 @@
         </is>
       </c>
       <c r="AB338" t="n">
-        <v>49788</v>
+        <v>-9309</v>
       </c>
       <c r="AC338" t="inlineStr">
         <is>
@@ -62474,7 +62474,7 @@
         </is>
       </c>
       <c r="AB339" t="n">
-        <v>3017</v>
+        <v>-8620</v>
       </c>
       <c r="AC339" t="inlineStr">
         <is>
@@ -62655,7 +62655,7 @@
         </is>
       </c>
       <c r="AB340" t="n">
-        <v>-6505</v>
+        <v>14518</v>
       </c>
       <c r="AC340" t="inlineStr">
         <is>
@@ -62836,7 +62836,7 @@
         </is>
       </c>
       <c r="AB341" t="n">
-        <v>33565</v>
+        <v>61257</v>
       </c>
       <c r="AC341" t="inlineStr">
         <is>
@@ -63017,7 +63017,7 @@
         </is>
       </c>
       <c r="AB342" t="n">
-        <v>16269</v>
+        <v>43206</v>
       </c>
       <c r="AC342" t="inlineStr">
         <is>
@@ -63198,7 +63198,7 @@
         </is>
       </c>
       <c r="AB343" t="n">
-        <v>-29346</v>
+        <v>-43314</v>
       </c>
       <c r="AC343" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="AB344" t="n">
-        <v>-92662</v>
+        <v>-252150</v>
       </c>
       <c r="AC344" t="inlineStr">
         <is>
@@ -63560,7 +63560,7 @@
         </is>
       </c>
       <c r="AB345" t="n">
-        <v>-27906</v>
+        <v>-155994</v>
       </c>
       <c r="AC345" t="inlineStr">
         <is>
@@ -63741,7 +63741,7 @@
         </is>
       </c>
       <c r="AB346" t="n">
-        <v>50369</v>
+        <v>-112534</v>
       </c>
       <c r="AC346" t="inlineStr">
         <is>
@@ -63922,7 +63922,7 @@
         </is>
       </c>
       <c r="AB347" t="n">
-        <v>120354</v>
+        <v>-46387</v>
       </c>
       <c r="AC347" t="inlineStr">
         <is>
@@ -64103,7 +64103,7 @@
         </is>
       </c>
       <c r="AB348" t="n">
-        <v>54843</v>
+        <v>-52702</v>
       </c>
       <c r="AC348" t="inlineStr">
         <is>
@@ -64284,7 +64284,7 @@
         </is>
       </c>
       <c r="AB349" t="n">
-        <v>-64337</v>
+        <v>-77783</v>
       </c>
       <c r="AC349" t="inlineStr">
         <is>
@@ -64473,7 +64473,7 @@
         </is>
       </c>
       <c r="AB350" t="n">
-        <v>6021115</v>
+        <v>22812556</v>
       </c>
       <c r="AC350" t="inlineStr">
         <is>
@@ -64662,7 +64662,7 @@
         </is>
       </c>
       <c r="AB351" t="n">
-        <v>9213377</v>
+        <v>22112862</v>
       </c>
       <c r="AC351" t="inlineStr">
         <is>
@@ -64851,7 +64851,7 @@
         </is>
       </c>
       <c r="AB352" t="n">
-        <v>7372736</v>
+        <v>22916447</v>
       </c>
       <c r="AC352" t="inlineStr">
         <is>
@@ -65040,7 +65040,7 @@
         </is>
       </c>
       <c r="AB353" t="n">
-        <v>11659610</v>
+        <v>24048882</v>
       </c>
       <c r="AC353" t="inlineStr">
         <is>
@@ -65229,7 +65229,7 @@
         </is>
       </c>
       <c r="AB354" t="n">
-        <v>-651206</v>
+        <v>21532520</v>
       </c>
       <c r="AC354" t="inlineStr">
         <is>
@@ -65418,7 +65418,7 @@
         </is>
       </c>
       <c r="AB355" t="n">
-        <v>2081724</v>
+        <v>15899041</v>
       </c>
       <c r="AC355" t="inlineStr">
         <is>
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="AB356" t="n">
-        <v>5131831</v>
+        <v>6890819</v>
       </c>
       <c r="AC356" t="inlineStr">
         <is>
@@ -65796,7 +65796,7 @@
         </is>
       </c>
       <c r="AB357" t="n">
-        <v>13550691</v>
+        <v>12641314</v>
       </c>
       <c r="AC357" t="inlineStr">
         <is>
@@ -65985,7 +65985,7 @@
         </is>
       </c>
       <c r="AB358" t="n">
-        <v>13461987</v>
+        <v>12863363</v>
       </c>
       <c r="AC358" t="inlineStr">
         <is>
@@ -66166,7 +66166,7 @@
         </is>
       </c>
       <c r="AB359" t="n">
-        <v>7257441</v>
+        <v>3877164</v>
       </c>
       <c r="AC359" t="inlineStr">
         <is>
@@ -66347,7 +66347,7 @@
         </is>
       </c>
       <c r="AB360" t="n">
-        <v>8633035</v>
+        <v>22321534</v>
       </c>
       <c r="AC360" t="inlineStr">
         <is>
@@ -66528,7 +66528,7 @@
         </is>
       </c>
       <c r="AB361" t="n">
-        <v>355330</v>
+        <v>1336177</v>
       </c>
       <c r="AC361" t="inlineStr">
         <is>
@@ -66666,27 +66666,27 @@
       </c>
       <c r="P362" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="S362" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T362" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U362" t="n">
@@ -66709,7 +66709,7 @@
         </is>
       </c>
       <c r="AB362" t="n">
-        <v>41</v>
+        <v>-697</v>
       </c>
       <c r="AC362" t="inlineStr">
         <is>
@@ -66845,27 +66845,27 @@
       </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="S363" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T363" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="U363" t="n">
@@ -66888,7 +66888,7 @@
         </is>
       </c>
       <c r="AB363" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AC363" t="inlineStr">
         <is>
@@ -66991,11 +66991,11 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>100</v>
+        <v>1.89</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -67009,7 +67009,7 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="N364" t="n">
@@ -67022,27 +67022,27 @@
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="S364" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T364" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="U364" t="n">
@@ -67065,7 +67065,7 @@
         </is>
       </c>
       <c r="AB364" t="n">
-        <v>369</v>
+        <v>0</v>
       </c>
       <c r="AC364" t="inlineStr">
         <is>
@@ -67206,22 +67206,22 @@
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="S365" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T365" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="U365" t="n">
@@ -67244,7 +67244,7 @@
         </is>
       </c>
       <c r="AB365" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AC365" t="inlineStr">
         <is>
@@ -67385,22 +67385,22 @@
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="S366" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="T366" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="U366" t="n">
@@ -67423,7 +67423,7 @@
         </is>
       </c>
       <c r="AB366" t="n">
-        <v>-979</v>
+        <v>0</v>
       </c>
       <c r="AC366" t="inlineStr">
         <is>
@@ -67559,27 +67559,27 @@
       </c>
       <c r="P367" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="S367" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="T367" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="U367" t="n">
@@ -67602,7 +67602,7 @@
         </is>
       </c>
       <c r="AB367" t="n">
-        <v>-608</v>
+        <v>0</v>
       </c>
       <c r="AC367" t="inlineStr">
         <is>
@@ -67738,27 +67738,27 @@
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="S368" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="T368" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="U368" t="n">
@@ -67781,7 +67781,7 @@
         </is>
       </c>
       <c r="AB368" t="n">
-        <v>-781</v>
+        <v>0</v>
       </c>
       <c r="AC368" t="inlineStr">
         <is>
@@ -67917,27 +67917,27 @@
       </c>
       <c r="P369" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="S369" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="T369" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="U369" t="n">
@@ -68096,27 +68096,27 @@
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="S370" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="T370" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="U370" t="n">
@@ -68240,11 +68240,11 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>37.4</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>100</v>
+        <v>-8.880000000000001</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -68258,7 +68258,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="N371" t="n">
@@ -68271,27 +68271,27 @@
       </c>
       <c r="P371" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S371" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="T371" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="U371" t="n">
@@ -68455,7 +68455,7 @@
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -68465,12 +68465,12 @@
       </c>
       <c r="S372" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="T372" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="U372" t="n">
@@ -68493,7 +68493,7 @@
         </is>
       </c>
       <c r="AB372" t="n">
-        <v>472</v>
+        <v>-1636</v>
       </c>
       <c r="AC372" t="inlineStr">
         <is>
@@ -68634,7 +68634,7 @@
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -68644,12 +68644,12 @@
       </c>
       <c r="S373" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="T373" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="U373" t="n">
@@ -68672,7 +68672,7 @@
         </is>
       </c>
       <c r="AB373" t="n">
-        <v>74</v>
+        <v>-494</v>
       </c>
       <c r="AC373" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="AB374" t="n">
-        <v>2668</v>
+        <v>701</v>
       </c>
       <c r="AC374" t="inlineStr">
         <is>
@@ -69030,7 +69030,7 @@
         </is>
       </c>
       <c r="AB375" t="n">
-        <v>-1479</v>
+        <v>-4629</v>
       </c>
       <c r="AC375" t="inlineStr">
         <is>
@@ -69209,7 +69209,7 @@
         </is>
       </c>
       <c r="AB376" t="n">
-        <v>-2025</v>
+        <v>-8762</v>
       </c>
       <c r="AC376" t="inlineStr">
         <is>
@@ -69388,7 +69388,7 @@
         </is>
       </c>
       <c r="AB377" t="n">
-        <v>-490</v>
+        <v>-7656</v>
       </c>
       <c r="AC377" t="inlineStr">
         <is>
@@ -69567,7 +69567,7 @@
         </is>
       </c>
       <c r="AB378" t="n">
-        <v>-777</v>
+        <v>-4668</v>
       </c>
       <c r="AC378" t="inlineStr">
         <is>
@@ -69746,7 +69746,7 @@
         </is>
       </c>
       <c r="AB379" t="n">
-        <v>-576</v>
+        <v>-5696</v>
       </c>
       <c r="AC379" t="inlineStr">
         <is>
@@ -69925,7 +69925,7 @@
         </is>
       </c>
       <c r="AB380" t="n">
-        <v>-1477</v>
+        <v>-4030</v>
       </c>
       <c r="AC380" t="inlineStr">
         <is>
@@ -70104,7 +70104,7 @@
         </is>
       </c>
       <c r="AB381" t="n">
-        <v>-2373</v>
+        <v>-4240</v>
       </c>
       <c r="AC381" t="inlineStr">
         <is>
@@ -70283,7 +70283,7 @@
         </is>
       </c>
       <c r="AB382" t="n">
-        <v>-6161</v>
+        <v>-5461</v>
       </c>
       <c r="AC382" t="inlineStr">
         <is>
@@ -70462,7 +70462,7 @@
         </is>
       </c>
       <c r="AB383" t="n">
-        <v>-5689</v>
+        <v>-3414</v>
       </c>
       <c r="AC383" t="inlineStr">
         <is>
@@ -70641,7 +70641,7 @@
         </is>
       </c>
       <c r="AB384" t="n">
-        <v>-1518</v>
+        <v>-2866</v>
       </c>
       <c r="AC384" t="inlineStr">
         <is>
@@ -70820,7 +70820,7 @@
         </is>
       </c>
       <c r="AB385" t="n">
-        <v>1041</v>
+        <v>4264</v>
       </c>
       <c r="AC385" t="inlineStr">
         <is>
@@ -71007,7 +71007,7 @@
         </is>
       </c>
       <c r="AB386" t="n">
-        <v>-26230956</v>
+        <v>-17147899</v>
       </c>
       <c r="AC386" t="inlineStr">
         <is>
@@ -71196,7 +71196,7 @@
         </is>
       </c>
       <c r="AB387" t="n">
-        <v>-66055783</v>
+        <v>-22614240</v>
       </c>
       <c r="AC387" t="inlineStr">
         <is>
@@ -71385,7 +71385,7 @@
         </is>
       </c>
       <c r="AB388" t="n">
-        <v>-55579216</v>
+        <v>-32968960</v>
       </c>
       <c r="AC388" t="inlineStr">
         <is>
@@ -71574,7 +71574,7 @@
         </is>
       </c>
       <c r="AB389" t="n">
-        <v>-15309920</v>
+        <v>25319903</v>
       </c>
       <c r="AC389" t="inlineStr">
         <is>
@@ -71763,7 +71763,7 @@
         </is>
       </c>
       <c r="AB390" t="n">
-        <v>-45720584</v>
+        <v>78879683</v>
       </c>
       <c r="AC390" t="inlineStr">
         <is>
@@ -71952,7 +71952,7 @@
         </is>
       </c>
       <c r="AB391" t="n">
-        <v>29122798</v>
+        <v>62191391</v>
       </c>
       <c r="AC391" t="inlineStr">
         <is>
@@ -72141,7 +72141,7 @@
         </is>
       </c>
       <c r="AB392" t="n">
-        <v>24392977</v>
+        <v>17496195</v>
       </c>
       <c r="AC392" t="inlineStr">
         <is>
@@ -72330,7 +72330,7 @@
         </is>
       </c>
       <c r="AB393" t="n">
-        <v>89162127</v>
+        <v>91137006</v>
       </c>
       <c r="AC393" t="inlineStr">
         <is>
@@ -72519,7 +72519,7 @@
         </is>
       </c>
       <c r="AB394" t="n">
-        <v>-6512542</v>
+        <v>13410111</v>
       </c>
       <c r="AC394" t="inlineStr">
         <is>
@@ -72708,7 +72708,7 @@
         </is>
       </c>
       <c r="AB395" t="n">
-        <v>16236846</v>
+        <v>-25072607</v>
       </c>
       <c r="AC395" t="inlineStr">
         <is>
@@ -72897,7 +72897,7 @@
         </is>
       </c>
       <c r="AB396" t="n">
-        <v>35438140</v>
+        <v>1843472</v>
       </c>
       <c r="AC396" t="inlineStr">
         <is>
@@ -73078,7 +73078,7 @@
         </is>
       </c>
       <c r="AB397" t="n">
-        <v>39581135</v>
+        <v>137420141</v>
       </c>
       <c r="AC397" t="inlineStr">
         <is>
@@ -73267,7 +73267,7 @@
         </is>
       </c>
       <c r="AB398" t="n">
-        <v>948187</v>
+        <v>1133599</v>
       </c>
       <c r="AC398" t="inlineStr">
         <is>
@@ -73456,7 +73456,7 @@
         </is>
       </c>
       <c r="AB399" t="n">
-        <v>585876</v>
+        <v>656483</v>
       </c>
       <c r="AC399" t="inlineStr">
         <is>
@@ -73645,7 +73645,7 @@
         </is>
       </c>
       <c r="AB400" t="n">
-        <v>406944</v>
+        <v>547928</v>
       </c>
       <c r="AC400" t="inlineStr">
         <is>
@@ -73834,7 +73834,7 @@
         </is>
       </c>
       <c r="AB401" t="n">
-        <v>144933</v>
+        <v>228989</v>
       </c>
       <c r="AC401" t="inlineStr">
         <is>
@@ -74023,7 +74023,7 @@
         </is>
       </c>
       <c r="AB402" t="n">
-        <v>-95972</v>
+        <v>116061</v>
       </c>
       <c r="AC402" t="inlineStr">
         <is>
@@ -74204,7 +74204,7 @@
         </is>
       </c>
       <c r="AB403" t="n">
-        <v>47076</v>
+        <v>163723</v>
       </c>
       <c r="AC403" t="inlineStr">
         <is>
@@ -74385,7 +74385,7 @@
         </is>
       </c>
       <c r="AB404" t="n">
-        <v>40479</v>
+        <v>105989</v>
       </c>
       <c r="AC404" t="inlineStr">
         <is>
@@ -74566,7 +74566,7 @@
         </is>
       </c>
       <c r="AB405" t="n">
-        <v>166579</v>
+        <v>191637</v>
       </c>
       <c r="AC405" t="inlineStr">
         <is>
@@ -74747,7 +74747,7 @@
         </is>
       </c>
       <c r="AB406" t="n">
-        <v>93908</v>
+        <v>114269</v>
       </c>
       <c r="AC406" t="inlineStr">
         <is>
@@ -74928,7 +74928,7 @@
         </is>
       </c>
       <c r="AB407" t="n">
-        <v>43577</v>
+        <v>49468</v>
       </c>
       <c r="AC407" t="inlineStr">
         <is>
@@ -75109,7 +75109,7 @@
         </is>
       </c>
       <c r="AB408" t="n">
-        <v>45454</v>
+        <v>58541</v>
       </c>
       <c r="AC408" t="inlineStr">
         <is>
@@ -75290,7 +75290,7 @@
         </is>
       </c>
       <c r="AB409" t="n">
-        <v>22739</v>
+        <v>69419</v>
       </c>
       <c r="AC409" t="inlineStr">
         <is>
@@ -75479,7 +75479,7 @@
         </is>
       </c>
       <c r="AB410" t="n">
-        <v>27636</v>
+        <v>332401</v>
       </c>
       <c r="AC410" t="inlineStr">
         <is>
@@ -75668,7 +75668,7 @@
         </is>
       </c>
       <c r="AB411" t="n">
-        <v>67060</v>
+        <v>350437</v>
       </c>
       <c r="AC411" t="inlineStr">
         <is>
@@ -75857,7 +75857,7 @@
         </is>
       </c>
       <c r="AB412" t="n">
-        <v>-50392</v>
+        <v>329370</v>
       </c>
       <c r="AC412" t="inlineStr">
         <is>
@@ -76046,7 +76046,7 @@
         </is>
       </c>
       <c r="AB413" t="n">
-        <v>180463</v>
+        <v>302226</v>
       </c>
       <c r="AC413" t="inlineStr">
         <is>
@@ -76235,7 +76235,7 @@
         </is>
       </c>
       <c r="AB414" t="n">
-        <v>260480</v>
+        <v>288957</v>
       </c>
       <c r="AC414" t="inlineStr">
         <is>
@@ -76424,7 +76424,7 @@
         </is>
       </c>
       <c r="AB415" t="n">
-        <v>371223</v>
+        <v>379877</v>
       </c>
       <c r="AC415" t="inlineStr">
         <is>
@@ -76613,7 +76613,7 @@
         </is>
       </c>
       <c r="AB416" t="n">
-        <v>124302</v>
+        <v>124776</v>
       </c>
       <c r="AC416" t="inlineStr">
         <is>
@@ -76802,7 +76802,7 @@
         </is>
       </c>
       <c r="AB417" t="n">
-        <v>22897</v>
+        <v>26158</v>
       </c>
       <c r="AC417" t="inlineStr">
         <is>
@@ -76991,7 +76991,7 @@
         </is>
       </c>
       <c r="AB418" t="n">
-        <v>8539</v>
+        <v>7236</v>
       </c>
       <c r="AC418" t="inlineStr">
         <is>
@@ -77172,7 +77172,7 @@
         </is>
       </c>
       <c r="AB419" t="n">
-        <v>-2539</v>
+        <v>5565</v>
       </c>
       <c r="AC419" t="inlineStr">
         <is>
@@ -77353,7 +77353,7 @@
         </is>
       </c>
       <c r="AB420" t="n">
-        <v>5580</v>
+        <v>13562</v>
       </c>
       <c r="AC420" t="inlineStr">
         <is>
@@ -77534,7 +77534,7 @@
         </is>
       </c>
       <c r="AB421" t="n">
-        <v>115</v>
+        <v>14485</v>
       </c>
       <c r="AC421" t="inlineStr">
         <is>

--- a/Result/checksun/綠能環保.xlsx
+++ b/Result/checksun/綠能環保.xlsx
@@ -722,10 +722,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -939,16 +939,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1373,20 +1373,20 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1590,16 +1590,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>-3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>28</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1807,20 +1807,20 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>-18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2032,20 +2032,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2482,20 +2482,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3153,20 +3153,20 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3591,20 +3591,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -3810,16 +3810,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4032,17 +4032,17 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4467,20 +4467,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>-14</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4686,20 +4686,20 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -4905,20 +4905,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5558,16 +5558,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5777,20 +5777,20 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B25" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -5996,20 +5996,20 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -6215,13 +6215,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>3</v>
@@ -6437,17 +6437,17 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -6653,16 +6653,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6872,20 +6872,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7091,20 +7091,20 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -7310,20 +7310,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7963,20 +7963,20 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -8189,10 +8189,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -8405,10 +8405,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -8624,13 +8624,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -8846,10 +8846,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -9062,20 +9062,20 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -9281,16 +9281,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>1</v>
       </c>
-      <c r="C41" t="n">
-        <v>-3</v>
-      </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -9500,20 +9500,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9719,20 +9719,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10372,13 +10372,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -10810,13 +10810,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -11029,20 +11029,20 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -11251,10 +11251,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -11467,20 +11467,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="n">
-        <v>4</v>
-      </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -11686,20 +11686,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11905,20 +11905,20 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -12124,16 +12124,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -12777,13 +12777,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -13008,16 +13008,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -13227,20 +13227,20 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D59" t="n">
         <v>-1</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -13446,16 +13446,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>-1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13665,20 +13665,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -13884,16 +13884,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -14103,20 +14103,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14322,20 +14322,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -14541,16 +14541,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -15194,16 +15194,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -15413,16 +15413,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B69" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -15632,16 +15632,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B70" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C70" t="n">
         <v>-1</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -15851,20 +15851,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -16070,20 +16070,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -16289,20 +16289,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -16508,20 +16508,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B74" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16730,17 +16730,17 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -16946,16 +16946,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -17607,20 +17607,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" t="n">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C79" t="n">
         <v>-1</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -17826,10 +17826,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" t="n">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
@@ -18045,16 +18045,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -18267,13 +18267,13 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -18486,17 +18486,17 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -18705,13 +18705,13 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -18924,17 +18924,17 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>65</v>
+        <v>-12</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19143,17 +19143,17 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -19362,17 +19362,17 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -20012,13 +20012,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>-1</v>
@@ -20234,10 +20234,10 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>-1</v>
@@ -20450,16 +20450,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -20672,17 +20672,17 @@
         <v>-1</v>
       </c>
       <c r="B93" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D93" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -20888,13 +20888,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>-3</v>
@@ -21107,20 +21107,20 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -21326,20 +21326,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B96" t="n">
+        <v>21</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
         <v>-2</v>
       </c>
-      <c r="B96" t="n">
-        <v>27</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D96" t="n">
-        <v>27</v>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -21545,16 +21545,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -21764,20 +21764,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22433,16 +22433,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
+        <v>2</v>
+      </c>
+      <c r="B101" t="n">
+        <v>9</v>
+      </c>
+      <c r="C101" t="n">
         <v>1</v>
       </c>
-      <c r="B101" t="n">
-        <v>14</v>
-      </c>
-      <c r="C101" t="n">
-        <v>-1</v>
-      </c>
       <c r="D101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -22652,16 +22652,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -22871,20 +22871,20 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>10</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
         <v>2</v>
       </c>
-      <c r="B103" t="n">
-        <v>24</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-12</v>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -23090,13 +23090,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D104" t="n">
         <v>-8</v>
@@ -23309,20 +23309,20 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D105" t="n">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -23528,16 +23528,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="n">
+        <v>30</v>
+      </c>
+      <c r="C106" t="n">
         <v>1</v>
       </c>
-      <c r="B106" t="n">
-        <v>47</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2</v>
-      </c>
       <c r="D106" t="n">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -23747,16 +23747,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -23969,17 +23969,17 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -24185,20 +24185,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24838,16 +24838,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -25055,13 +25055,13 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -25272,20 +25272,20 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -25489,16 +25489,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D115" t="n">
         <v>-1</v>
-      </c>
-      <c r="B115" t="n">
-        <v>6</v>
-      </c>
-      <c r="C115" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -25706,20 +25706,20 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B116" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D116" t="n">
         <v>-2</v>
       </c>
-      <c r="D116" t="n">
-        <v>-1</v>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -25923,16 +25923,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="n">
         <v>-2</v>
       </c>
       <c r="D117" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -26140,20 +26140,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B118" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="D118" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -26357,13 +26357,13 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -26574,20 +26574,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27224,13 +27224,13 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -27875,17 +27875,17 @@
         <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -28089,16 +28089,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C127" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -28306,16 +28306,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C128" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -28523,20 +28523,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B129" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C129" t="n">
         <v>-1</v>
       </c>
       <c r="D129" t="n">
-        <v>30</v>
+        <v>-4</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -28740,16 +28740,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -28957,20 +28957,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -29620,20 +29620,20 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -29837,20 +29837,20 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="B135" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C135" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -30054,16 +30054,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B136" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -30271,20 +30271,20 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B137" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C137" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D137" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -30488,20 +30488,20 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138" t="n">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D138" t="n">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -30705,20 +30705,20 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B139" t="n">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C139" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -30920,20 +30920,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B140" t="n">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D140" t="n">
-        <v>126</v>
+        <v>-10</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -31135,20 +31135,20 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -31350,20 +31350,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -31992,7 +31992,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -32211,13 +32211,13 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -32430,13 +32430,13 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C147" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -32646,16 +32646,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -32865,16 +32865,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D149" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -33087,13 +33087,13 @@
         <v>1</v>
       </c>
       <c r="B150" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -33306,17 +33306,17 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D151" t="n">
-        <v>22</v>
+        <v>-5</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -33522,16 +33522,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -33744,17 +33744,17 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -34394,20 +34394,20 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C156" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -34613,16 +34613,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="B157" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C157" t="n">
         <v>3</v>
       </c>
       <c r="D157" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -34832,16 +34832,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="B158" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C158" t="n">
         <v>-1</v>
       </c>
       <c r="D158" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -35051,13 +35051,13 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="B159" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C159" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D159" t="n">
         <v>18</v>
@@ -35270,20 +35270,20 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="B160" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C160" t="n">
         <v>-3</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -35489,16 +35489,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>14</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" t="n">
         <v>-2</v>
-      </c>
-      <c r="B161" t="n">
-        <v>26</v>
-      </c>
-      <c r="C161" t="n">
-        <v>4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>-3</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -35708,20 +35708,20 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="B162" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C162" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="D162" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -35927,20 +35927,20 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -36146,20 +36146,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -36799,16 +36799,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B167" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -37028,16 +37028,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B168" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C168" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -37257,16 +37257,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B169" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D169" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -37486,16 +37486,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B170" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D170" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -37715,20 +37715,20 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C171" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D171" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -37944,20 +37944,20 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B172" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C172" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D172" t="n">
         <v>-2</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -38173,20 +38173,20 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="B173" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C173" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D173" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -38405,17 +38405,17 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -38631,20 +38631,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -39317,17 +39317,17 @@
         <v>-1</v>
       </c>
       <c r="B178" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C178" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -39545,16 +39545,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B179" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D179" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -39779,17 +39779,17 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C180" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>-33</v>
+        <v>-7</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -40007,16 +40007,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -40238,20 +40238,20 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -40472,7 +40472,7 @@
         <v>3</v>
       </c>
       <c r="B183" t="n">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -40703,17 +40703,17 @@
         <v>2</v>
       </c>
       <c r="B184" t="n">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D184" t="n">
-        <v>102</v>
+        <v>-3</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -40931,20 +40931,20 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -41165,17 +41165,17 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -41851,16 +41851,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B189" t="n">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D189" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -42070,16 +42070,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B190" t="n">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C190" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -42289,20 +42289,20 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="B191" t="n">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="C191" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>-44</v>
+        <v>-4</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -42508,20 +42508,20 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B192" t="n">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>-8</v>
+        <v>-24</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -42727,20 +42727,20 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="B193" t="n">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="C193" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="D193" t="n">
-        <v>-10</v>
+        <v>-34</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -42946,16 +42946,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B194" t="n">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -43165,20 +43165,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B195" t="n">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D195" t="n">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -43384,20 +43384,20 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -43606,17 +43606,17 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -44256,16 +44256,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B200" t="n">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D200" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -44487,16 +44487,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B201" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C201" t="n">
         <v>3</v>
       </c>
       <c r="D201" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -44718,16 +44718,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B202" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C202" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D202" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -44949,20 +44949,20 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C203" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -45180,20 +45180,20 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C204" t="n">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="D204" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -45411,20 +45411,20 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="B205" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="D205" t="n">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -45642,20 +45642,20 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B206" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C206" t="n">
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="D206" t="n">
-        <v>50</v>
+        <v>-7</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -45873,20 +45873,20 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -46104,20 +46104,20 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -46788,13 +46788,13 @@
         <v>1</v>
       </c>
       <c r="B211" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -47007,13 +47007,13 @@
         <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -47229,7 +47229,7 @@
         <v>4</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D213" t="n">
         <v>1</v>
@@ -47442,16 +47442,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B214" t="n">
         <v>3</v>
       </c>
       <c r="C214" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -47664,10 +47664,10 @@
         <v>1</v>
       </c>
       <c r="B215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>2</v>
@@ -47880,13 +47880,13 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D216" t="n">
         <v>-1</v>
@@ -48099,16 +48099,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
         <v>2</v>
       </c>
-      <c r="C217" t="n">
-        <v>0</v>
-      </c>
       <c r="D217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -48321,13 +48321,13 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -48537,16 +48537,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -49193,10 +49193,10 @@
         <v>1</v>
       </c>
       <c r="B222" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
         <v>1</v>
@@ -49409,16 +49409,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B223" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C223" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D223" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -49631,17 +49631,17 @@
         <v>2</v>
       </c>
       <c r="B224" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -49847,16 +49847,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B225" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C225" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -50069,10 +50069,10 @@
         <v>0</v>
       </c>
       <c r="B226" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" t="n">
         <v>1</v>
@@ -50285,13 +50285,13 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B227" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
@@ -50507,13 +50507,13 @@
         <v>0</v>
       </c>
       <c r="B228" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -50726,13 +50726,13 @@
         <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -50945,13 +50945,13 @@
         <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -51595,20 +51595,20 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -51818,20 +51818,20 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B234" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D234" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -52041,20 +52041,20 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="B235" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -52267,13 +52267,13 @@
         <v>-4</v>
       </c>
       <c r="B236" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C236" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -52487,20 +52487,20 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B237" t="n">
+        <v>38</v>
+      </c>
+      <c r="C237" t="n">
         <v>-3</v>
       </c>
-      <c r="B237" t="n">
-        <v>69</v>
-      </c>
-      <c r="C237" t="n">
-        <v>2</v>
-      </c>
       <c r="D237" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -52710,20 +52710,20 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B238" t="n">
+        <v>38</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D238" t="n">
         <v>-5</v>
       </c>
-      <c r="B238" t="n">
-        <v>84</v>
-      </c>
-      <c r="C238" t="n">
-        <v>2</v>
-      </c>
-      <c r="D238" t="n">
-        <v>-25</v>
-      </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -52933,20 +52933,20 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="B239" t="n">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C239" t="n">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="D239" t="n">
-        <v>109</v>
+        <v>-21</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -53156,20 +53156,20 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -53379,20 +53379,20 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -54044,16 +54044,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B244" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
         <v>-1</v>
-      </c>
-      <c r="D244" t="n">
-        <v>-2</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -54263,16 +54263,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B245" t="n">
+        <v>6</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2</v>
+      </c>
+      <c r="D245" t="n">
         <v>-2</v>
-      </c>
-      <c r="B245" t="n">
-        <v>13</v>
-      </c>
-      <c r="C245" t="n">
-        <v>1</v>
-      </c>
-      <c r="D245" t="n">
-        <v>-1</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -54485,13 +54485,13 @@
         <v>-3</v>
       </c>
       <c r="B246" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C246" t="n">
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -54704,13 +54704,13 @@
         <v>-2</v>
       </c>
       <c r="B247" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D247" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -54920,20 +54920,20 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B248" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C248" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D248" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -55139,20 +55139,20 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
+        <v>0</v>
+      </c>
+      <c r="B249" t="n">
+        <v>11</v>
+      </c>
+      <c r="C249" t="n">
         <v>2</v>
-      </c>
-      <c r="B249" t="n">
-        <v>36</v>
-      </c>
-      <c r="C249" t="n">
-        <v>3</v>
       </c>
       <c r="D249" t="n">
         <v>-5</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -55358,20 +55358,20 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B250" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C250" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D250" t="n">
-        <v>41</v>
+        <v>-14</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -55577,20 +55577,20 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -55796,20 +55796,20 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -56449,20 +56449,20 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B255" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C255" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -56672,16 +56672,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B256" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -56894,10 +56894,10 @@
         <v>-2</v>
       </c>
       <c r="B257" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C257" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -57110,16 +57110,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B258" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C258" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -57329,16 +57329,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B259" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D259" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -57548,20 +57548,20 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B260" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C260" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D260" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -57767,20 +57767,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
+        <v>0</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
         <v>-4</v>
       </c>
-      <c r="B261" t="n">
-        <v>12</v>
-      </c>
-      <c r="C261" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D261" t="n">
-        <v>12</v>
-      </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -57989,17 +57989,17 @@
         <v>0</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -58205,20 +58205,20 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -58861,13 +58861,13 @@
         <v>1</v>
       </c>
       <c r="B266" t="n">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -59084,13 +59084,13 @@
         <v>0</v>
       </c>
       <c r="B267" t="n">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -59307,13 +59307,13 @@
         <v>0</v>
       </c>
       <c r="B268" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -59538,17 +59538,17 @@
         <v>0</v>
       </c>
       <c r="B269" t="n">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>9</v>
+        <v>-22</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -59769,13 +59769,13 @@
         <v>0</v>
       </c>
       <c r="B270" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -60000,7 +60000,7 @@
         <v>0</v>
       </c>
       <c r="B271" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C271" t="n">
         <v>-1</v>
@@ -60231,13 +60231,13 @@
         <v>1</v>
       </c>
       <c r="B272" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
       </c>
       <c r="D272" t="n">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -60462,13 +60462,13 @@
         <v>0</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -60685,17 +60685,17 @@
         <v>0</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -61350,10 +61350,10 @@
         <v>-1</v>
       </c>
       <c r="B277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -61566,13 +61566,13 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D278" t="n">
         <v>-1</v>
@@ -61785,16 +61785,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B279" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C279" t="n">
         <v>-1</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -62004,13 +62004,13 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B280" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C280" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D280" t="n">
         <v>0</v>
@@ -62223,16 +62223,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B281" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C281" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -62442,20 +62442,20 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B282" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C282" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D282" t="n">
         <v>0</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -62661,20 +62661,20 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B283" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D283" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -62880,20 +62880,20 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -63099,16 +63099,16 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -63752,20 +63752,20 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
+        <v>0</v>
+      </c>
+      <c r="B288" t="n">
+        <v>13</v>
+      </c>
+      <c r="C288" t="n">
         <v>1</v>
       </c>
-      <c r="B288" t="n">
-        <v>33</v>
-      </c>
-      <c r="C288" t="n">
-        <v>4</v>
-      </c>
       <c r="D288" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -63971,20 +63971,20 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B289" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C289" t="n">
         <v>-2</v>
       </c>
       <c r="D289" t="n">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -64190,20 +64190,20 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B290" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C290" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -64409,20 +64409,20 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B291" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C291" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D291" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -64628,20 +64628,20 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B292" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
         <v>8</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -64847,20 +64847,20 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B293" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C293" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -65066,20 +65066,20 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B294" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C294" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D294" t="n">
-        <v>16</v>
+        <v>-3</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -65285,20 +65285,20 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -65504,20 +65504,20 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -66383,7 +66383,7 @@
         <v>2</v>
       </c>
       <c r="D300" t="n">
-        <v>-61</v>
+        <v>-42</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -66590,17 +66590,17 @@
         <v>-2</v>
       </c>
       <c r="B301" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C301" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D301" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
@@ -66804,20 +66804,20 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F302" t="inlineStr"/>
@@ -67022,17 +67022,17 @@
         <v>0</v>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F303" t="inlineStr"/>
@@ -68512,16 +68512,16 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B310" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D310" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -68731,16 +68731,16 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B311" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -68953,17 +68953,17 @@
         <v>0</v>
       </c>
       <c r="B312" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D312" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F312" t="inlineStr"/>
@@ -69169,20 +69169,20 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B313" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F313" t="inlineStr"/>
@@ -69391,17 +69391,17 @@
         <v>0</v>
       </c>
       <c r="B314" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F314" t="inlineStr"/>
@@ -69618,17 +69618,17 @@
         <v>0</v>
       </c>
       <c r="B315" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F315" t="inlineStr"/>
@@ -69845,17 +69845,17 @@
         <v>0</v>
       </c>
       <c r="B316" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>14</v>
+        <v>-4</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
@@ -70070,13 +70070,13 @@
         <v>0</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -70294,20 +70294,20 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F318" t="inlineStr"/>
@@ -70971,16 +70971,16 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B321" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -71190,16 +71190,16 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B322" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C322" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D322" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -71412,13 +71412,13 @@
         <v>3</v>
       </c>
       <c r="B323" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C323" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D323" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -71628,20 +71628,20 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B324" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C324" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F324" t="inlineStr"/>
@@ -71847,16 +71847,16 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
+        <v>0</v>
+      </c>
+      <c r="B325" t="n">
+        <v>7</v>
+      </c>
+      <c r="C325" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D325" t="n">
         <v>-2</v>
-      </c>
-      <c r="B325" t="n">
-        <v>14</v>
-      </c>
-      <c r="C325" t="n">
-        <v>1</v>
-      </c>
-      <c r="D325" t="n">
-        <v>2</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -72066,20 +72066,20 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B326" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D326" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
@@ -72285,20 +72285,20 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="B327" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C327" t="n">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="D327" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F327" t="inlineStr"/>
@@ -72504,20 +72504,20 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F328" t="inlineStr"/>
@@ -72723,20 +72723,20 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F329" t="inlineStr"/>
@@ -73376,16 +73376,16 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B332" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D332" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -73610,17 +73610,17 @@
         <v>0</v>
       </c>
       <c r="B333" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C333" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D333" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F333" t="inlineStr"/>
@@ -73834,13 +73834,13 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B334" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D334" t="n">
         <v>4</v>
@@ -74061,20 +74061,20 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B335" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C335" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D335" t="n">
         <v>-2</v>
       </c>
-      <c r="D335" t="n">
-        <v>3</v>
-      </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F335" t="inlineStr"/>
@@ -74280,16 +74280,16 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B336" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -74499,20 +74499,20 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B337" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F337" t="inlineStr"/>
@@ -74718,16 +74718,16 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B338" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C338" t="n">
         <v>4</v>
       </c>
       <c r="D338" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -74937,16 +74937,16 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -75159,17 +75159,17 @@
         <v>0</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F340" t="inlineStr"/>
@@ -75809,16 +75809,16 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="B343" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -76029,13 +76029,13 @@
         <v>-5</v>
       </c>
       <c r="B344" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C344" t="n">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="D344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -76241,20 +76241,20 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B345" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C345" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D345" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F345" t="inlineStr"/>
@@ -76456,16 +76456,16 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -76671,20 +76671,20 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D347" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F347" t="inlineStr"/>
@@ -78150,13 +78150,13 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B354" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D354" t="n">
         <v>2</v>
@@ -78367,20 +78367,20 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B355" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C355" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D355" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F355" t="inlineStr"/>
@@ -78584,16 +78584,16 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B356" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C356" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D356" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -78801,16 +78801,16 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B357" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
       </c>
       <c r="D357" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -79018,13 +79018,13 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B358" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -79238,13 +79238,13 @@
         <v>0</v>
       </c>
       <c r="B359" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D359" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -79452,20 +79452,20 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B360" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
       </c>
       <c r="D360" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F360" t="inlineStr"/>
@@ -79669,13 +79669,13 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -79889,17 +79889,17 @@
         <v>0</v>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F362" t="inlineStr"/>
@@ -80533,13 +80533,13 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B365" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C365" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D365" t="n">
         <v>2</v>
@@ -80756,16 +80756,16 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B366" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C366" t="n">
         <v>2</v>
       </c>
       <c r="D366" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -80975,16 +80975,16 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B367" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
       </c>
       <c r="D367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -81194,16 +81194,16 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B368" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C368" t="n">
         <v>-1</v>
       </c>
       <c r="D368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -81413,20 +81413,20 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B369" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C369" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D369" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F369" t="inlineStr"/>
@@ -81632,20 +81632,20 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B370" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C370" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D370" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F370" t="inlineStr"/>
@@ -81851,20 +81851,20 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
+        <v>0</v>
+      </c>
+      <c r="B371" t="n">
+        <v>7</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2</v>
+      </c>
+      <c r="D371" t="n">
         <v>-5</v>
       </c>
-      <c r="B371" t="n">
-        <v>22</v>
-      </c>
-      <c r="C371" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D371" t="n">
-        <v>22</v>
-      </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F371" t="inlineStr"/>
@@ -82070,20 +82070,20 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F372" t="inlineStr"/>
@@ -82289,20 +82289,20 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F373" t="inlineStr"/>
@@ -82945,7 +82945,7 @@
         <v>1</v>
       </c>
       <c r="B376" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C376" t="n">
         <v>3</v>
@@ -83176,17 +83176,17 @@
         <v>-2</v>
       </c>
       <c r="B377" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C377" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D377" t="n">
-        <v>-45</v>
+        <v>-9</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -83404,20 +83404,20 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B378" t="n">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="C378" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D378" t="n">
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -83635,16 +83635,16 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B379" t="n">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="C379" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D379" t="n">
-        <v>-27</v>
+        <v>-35</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -83866,20 +83866,20 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B380" t="n">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="C380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D380" t="n">
-        <v>8</v>
+        <v>-29</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -84097,20 +84097,20 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B381" t="n">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D381" t="n">
-        <v>3</v>
+        <v>-28</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -84320,16 +84320,16 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B382" t="n">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C382" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D382" t="n">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -84543,20 +84543,20 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -84766,20 +84766,20 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -85431,16 +85431,16 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="B387" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C387" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D387" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -85650,20 +85650,20 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="B388" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
       </c>
       <c r="D388" t="n">
-        <v>-57</v>
+        <v>-7</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F388" t="inlineStr"/>
@@ -85869,16 +85869,16 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="B389" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="C389" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D389" t="n">
-        <v>-17</v>
+        <v>-11</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -86088,20 +86088,20 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B390" t="n">
+        <v>31</v>
+      </c>
+      <c r="C390" t="n">
         <v>-3</v>
       </c>
-      <c r="B390" t="n">
-        <v>112</v>
-      </c>
-      <c r="C390" t="n">
-        <v>-5</v>
-      </c>
       <c r="D390" t="n">
-        <v>2</v>
+        <v>-53</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F390" t="inlineStr"/>
@@ -86307,20 +86307,20 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B391" t="n">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C391" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D391" t="n">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F391" t="inlineStr"/>
@@ -86526,20 +86526,20 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B392" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C392" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D392" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F392" t="inlineStr"/>
@@ -86745,16 +86745,16 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B393" t="n">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C393" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D393" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -86964,20 +86964,20 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F394" t="inlineStr"/>
@@ -87183,20 +87183,20 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F395" t="inlineStr"/>
